--- a/examples/analytical/SulfateRedcution/model_parsing_diagnostics.SulfateReduction.xlsx
+++ b/examples/analytical/SulfateRedcution/model_parsing_diagnostics.SulfateReduction.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>label</t>
   </si>
@@ -47,7 +47,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>species_modelled</t>
+    <t>formula</t>
   </si>
   <si>
     <t>codename</t>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>-2</t>
+  </si>
+  <si>
+    <t>SO4,</t>
   </si>
   <si>
     <t>dissolved</t>
@@ -661,20 +664,20 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
@@ -695,26 +698,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -735,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -746,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -757,7 +760,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -768,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -779,10 +782,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -790,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -801,10 +804,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -812,10 +815,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -823,10 +826,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -834,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -845,10 +848,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -903,98 +906,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1012,32 +1015,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>

--- a/examples/analytical/SulfateRedcution/model_parsing_diagnostics.SulfateReduction.xlsx
+++ b/examples/analytical/SulfateRedcution/model_parsing_diagnostics.SulfateReduction.xlsx
@@ -16,9 +16,10 @@
     <sheet name="species_in_model" sheetId="1" r:id="rId1"/>
     <sheet name="species_extra" r:id="rId5" sheetId="2"/>
     <sheet name="elements_in_reactions" r:id="rId6" sheetId="3"/>
-    <sheet name="reaction_dependency" r:id="rId7" sheetId="4"/>
-    <sheet name="transport_parameters" r:id="rId8" sheetId="5"/>
-    <sheet name="reaction_parameters" r:id="rId9" sheetId="6"/>
+    <sheet name="speciation" r:id="rId7" sheetId="4"/>
+    <sheet name="reaction_dependency" r:id="rId8" sheetId="5"/>
+    <sheet name="transport_parameters" r:id="rId9" sheetId="6"/>
+    <sheet name="reaction_parameters" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>label</t>
   </si>
@@ -101,9 +102,6 @@
     <t>-2</t>
   </si>
   <si>
-    <t>SO4,</t>
-  </si>
-  <si>
     <t>dissolved</t>
   </si>
   <si>
@@ -152,13 +150,19 @@
     <t>3</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>formula_</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>dependence</t>
   </si>
   <si>
     <t>parameter</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>POCID</t>
@@ -664,20 +668,20 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
@@ -698,26 +702,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -738,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -749,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -760,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -771,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -782,10 +786,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -793,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -804,10 +808,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -815,10 +819,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -826,10 +830,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -837,10 +841,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -848,10 +852,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -860,6 +864,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -872,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -896,7 +933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -906,98 +943,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1015,32 +1052,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
